--- a/STOCK UTN/2023/09 SEPTEMBER/25 SEPTEMBER - 30 SEPTEMBER 2023.xlsx
+++ b/STOCK UTN/2023/09 SEPTEMBER/25 SEPTEMBER - 30 SEPTEMBER 2023.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'JK KENKO'!$A$90:$C$239</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">IMPORT!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -11064,13 +11064,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -11262,22 +11262,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -11355,6 +11355,7 @@
       <sheetName val="print1"/>
       <sheetName val="print2"/>
       <sheetName val="print3"/>
+      <sheetName val="LOG_AGUSTUS_3"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -11365,6 +11366,7 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11660,8 +11662,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A100" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -11931,1235 +11933,1235 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A2" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Binder Clip JK 200</v>
-      </c>
-      <c r="B2" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>10 GRS</v>
+      <c r="A2" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B2" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A3" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Binder clip Kenko 105</v>
-      </c>
-      <c r="B3" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>50 GRS</v>
+      <c r="A3" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B3" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A4" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Binder Clip Kenko 107</v>
-      </c>
-      <c r="B4" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>4</v>
-      </c>
-      <c r="C4" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>50 GRS</v>
+      <c r="A4" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B4" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A5" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Binder clip Kenko 111</v>
-      </c>
-      <c r="B5" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>30 GRS</v>
+      <c r="A5" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B5" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C5" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A6" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Binder clip Kenko 300</v>
-      </c>
-      <c r="B6" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>2</v>
-      </c>
-      <c r="C6" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>48 BOX (6 PCS)</v>
+      <c r="A6" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B6" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C6" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A7" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>BN A5 JK M 440</v>
-      </c>
-      <c r="B7" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="33">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>72</v>
+      <c r="A7" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B7" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C7" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A8" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>BN A5 JK M 474</v>
-      </c>
-      <c r="B8" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>3</v>
-      </c>
-      <c r="C8" s="33">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>72</v>
+      <c r="A8" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B8" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C8" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A9" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>BN A5 JK M 477</v>
-      </c>
-      <c r="B9" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C9" s="33">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>72</v>
+      <c r="A9" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B9" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C9" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A10" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>BN A5 JK M 491</v>
-      </c>
-      <c r="B10" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C10" s="33">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>72</v>
+      <c r="A10" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B10" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C10" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A11" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Bp JK 330</v>
-      </c>
-      <c r="B11" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C11" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>144 LSN</v>
+      <c r="A11" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B11" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C11" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A12" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Bp JK GP-237 Xtech hitam</v>
-      </c>
-      <c r="B12" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C12" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>144 LSN</v>
+      <c r="A12" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B12" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C12" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A13" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Bp JK-100</v>
-      </c>
-      <c r="B13" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>2</v>
-      </c>
-      <c r="C13" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>144 LSN</v>
+      <c r="A13" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B13" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C13" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A14" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Bp Kenko Easy Gel Hitam</v>
-      </c>
-      <c r="B14" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C14" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>144 LSN</v>
+      <c r="A14" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B14" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C14" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A15" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Bp Kenko Hitech 0.28mm Biru</v>
-      </c>
-      <c r="B15" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C15" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>144 LSN</v>
+      <c r="A15" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B15" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C15" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A16" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Bp Kenko Hitech 0.4mm Hitam</v>
-      </c>
-      <c r="B16" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>2</v>
-      </c>
-      <c r="C16" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>144 LSN</v>
+      <c r="A16" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B16" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C16" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A17" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Bp Kenko KE-303 T-gel Hitam</v>
-      </c>
-      <c r="B17" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C17" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>144 LSN</v>
+      <c r="A17" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B17" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C17" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A18" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v xml:space="preserve">Bp Kenko KI spider B </v>
-      </c>
-      <c r="B18" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>14</v>
-      </c>
-      <c r="C18" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>144 LSN</v>
+      <c r="A18" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B18" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C18" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A19" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v xml:space="preserve">Bp Kenko KI spider M </v>
-      </c>
-      <c r="B19" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>7</v>
-      </c>
-      <c r="C19" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>144 LSN</v>
+      <c r="A19" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B19" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C19" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A20" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Bp Kenko KR 6 NaNoRay</v>
-      </c>
-      <c r="B20" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>38</v>
-      </c>
-      <c r="C20" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>144 LSN</v>
+      <c r="A20" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B20" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C20" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A21" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v xml:space="preserve">Bp Kenko KR 6 NaNoTip </v>
-      </c>
-      <c r="B21" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>37</v>
-      </c>
-      <c r="C21" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>144 LSN</v>
+      <c r="A21" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B21" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C21" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A22" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Bp Kenko MD 2</v>
-      </c>
-      <c r="B22" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C22" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>144 LSN</v>
+      <c r="A22" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B22" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C22" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A23" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Bp Kenko Si biru</v>
-      </c>
-      <c r="B23" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>74</v>
-      </c>
-      <c r="C23" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>144 LSN</v>
+      <c r="A23" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B23" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C23" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A24" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>BT Kenko BT -3224-01 Kembang</v>
-      </c>
-      <c r="B24" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C24" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>5 LSN</v>
+      <c r="A24" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B24" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C24" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A25" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>BT Kenko BT-2920-03 Bunga</v>
-      </c>
-      <c r="B25" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C25" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>5 LSN</v>
+      <c r="A25" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B25" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C25" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A26" s="31" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>BT Kenko BT-2920-BTK 02 batik</v>
-      </c>
-      <c r="B26" s="32">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C26" s="33" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>5 LSN</v>
+      <c r="A26" s="30" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B26" s="31" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C26" s="32" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A27" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Call JK CC-12</v>
-      </c>
-      <c r="B27" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C27" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>80 PCS</v>
+      <c r="A27" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B27" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C27" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A28" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Call JK CC-47 CO</v>
-      </c>
-      <c r="B28" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C28" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>120 PCS</v>
+      <c r="A28" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B28" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C28" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A29" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Call JK DTC-1516</v>
-      </c>
-      <c r="B29" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>2</v>
-      </c>
-      <c r="C29" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>60 PCS</v>
+      <c r="A29" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B29" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C29" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A30" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Clip Kenko 3100</v>
-      </c>
-      <c r="B30" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>2</v>
-      </c>
-      <c r="C30" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>48 LSN</v>
+      <c r="A30" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B30" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C30" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A31" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Crayon putar 24 AGE EiEi Kenko</v>
-      </c>
-      <c r="B31" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>5</v>
-      </c>
-      <c r="C31" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>72 PCS</v>
+      <c r="A31" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B31" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C31" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A32" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Crayon putar 24 Snoopy EiEi Kenko</v>
-      </c>
-      <c r="B32" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>24</v>
-      </c>
-      <c r="C32" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>72 PCS</v>
+      <c r="A32" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B32" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C32" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A33" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Cutter Kenko 918c</v>
-      </c>
-      <c r="B33" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>3</v>
-      </c>
-      <c r="C33" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>20 LSN</v>
+      <c r="A33" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B33" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C33" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A34" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Desk Set JK DS 338</v>
-      </c>
-      <c r="B34" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C34" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>48 PCS</v>
+      <c r="A34" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B34" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C34" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A35" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Dispenser Kenko TD-323</v>
-      </c>
-      <c r="B35" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>10</v>
-      </c>
-      <c r="C35" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>24 PCS</v>
+      <c r="A35" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B35" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C35" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A36" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Garisan 30cm Kenko F4 (1 box=120)</v>
-      </c>
-      <c r="B36" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>6</v>
-      </c>
-      <c r="C36" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>20 box</v>
+      <c r="A36" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B36" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C36" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A37" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Gunting Kenko SC 848 SG</v>
-      </c>
-      <c r="B37" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C37" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>10 LSN</v>
+      <c r="A37" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B37" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C37" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A38" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Isi cutter Kenko L-150 besar</v>
-      </c>
-      <c r="B38" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>2</v>
-      </c>
-      <c r="C38" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>60 LSN</v>
+      <c r="A38" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B38" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C38" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A39" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Isi stapler Kenko No.10-1 M</v>
-      </c>
-      <c r="B39" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>8</v>
-      </c>
-      <c r="C39" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>40 PAK (20 BOX)</v>
+      <c r="A39" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B39" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C39" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A40" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Jangka set JK MS 75</v>
-      </c>
-      <c r="B40" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>2</v>
-      </c>
-      <c r="C40" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>24 LSN</v>
+      <c r="A40" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B40" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C40" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A41" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>L Leaf JA B5 50</v>
-      </c>
-      <c r="B41" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>127</v>
-      </c>
-      <c r="C41" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>160 PCS</v>
+      <c r="A41" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B41" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C41" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A42" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>L Leaf JK A5 tanpa Cover Mix Mogu/ Minim/ Mola(4)</v>
-      </c>
-      <c r="B42" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>3</v>
-      </c>
-      <c r="C42" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>192 PCS</v>
+      <c r="A42" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B42" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C42" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A43" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Label JK LB-2RL 1 Line Putih</v>
-      </c>
-      <c r="B43" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>3</v>
-      </c>
-      <c r="C43" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>100 PAK (10 ROL)</v>
+      <c r="A43" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B43" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C43" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A44" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Label Kenko 5002 (2 Line)</v>
-      </c>
-      <c r="B44" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C44" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>50 TUB</v>
+      <c r="A44" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B44" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C44" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A45" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Label Kenko 6001 (1 Line)</v>
-      </c>
-      <c r="B45" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>4</v>
-      </c>
-      <c r="C45" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>50 TUB</v>
+      <c r="A45" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B45" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C45" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A46" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Lem Glupen Kenko GLP-01</v>
-      </c>
-      <c r="B46" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C46" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>12 GRS</v>
+      <c r="A46" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B46" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C46" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A47" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Lem JK GL-R50</v>
-      </c>
-      <c r="B47" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C47" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>24 LSN</v>
+      <c r="A47" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B47" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C47" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A48" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Lem Kenko LG-50</v>
-      </c>
-      <c r="B48" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C48" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>20 LSN</v>
+      <c r="A48" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B48" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C48" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A49" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Mesin label harga Kenko MX-5500</v>
-      </c>
-      <c r="B49" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>3</v>
-      </c>
-      <c r="C49" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>50 PCS</v>
+      <c r="A49" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B49" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C49" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A50" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Mesin label harga Kenko MX-5500 EOS</v>
-      </c>
-      <c r="B50" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>3</v>
-      </c>
-      <c r="C50" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>50 PCS</v>
+      <c r="A50" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B50" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C50" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A51" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Mesin label harga Kenko MX-6600 A</v>
-      </c>
-      <c r="B51" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C51" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>50 PCS</v>
+      <c r="A51" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B51" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C51" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A52" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>O pastel JK 18W OP-18 S</v>
-      </c>
-      <c r="B52" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>4</v>
-      </c>
-      <c r="C52" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>6 LSN</v>
+      <c r="A52" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B52" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C52" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A53" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>O pastel Titi 18W TI-P-18 S</v>
-      </c>
-      <c r="B53" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C53" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>6 LSN</v>
+      <c r="A53" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B53" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C53" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A54" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v xml:space="preserve">Oil Color Pensil JK TC 126-18 </v>
-      </c>
-      <c r="B54" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C54" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>18 SET</v>
+      <c r="A54" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B54" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C54" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A55" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>P case Kenko 2160p AGE</v>
-      </c>
-      <c r="B55" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>4</v>
-      </c>
-      <c r="C55" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>120 PCS</v>
+      <c r="A55" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B55" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C55" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A56" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>P case Kenko 2180 MG</v>
-      </c>
-      <c r="B56" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>11</v>
-      </c>
-      <c r="C56" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>120 PCS</v>
+      <c r="A56" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B56" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C56" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A57" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Pensil Glass JK PG-100</v>
-      </c>
-      <c r="B57" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C57" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>12 GRS</v>
+      <c r="A57" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B57" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C57" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A58" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Pensil Kenko 2B-6373 Metalik</v>
-      </c>
-      <c r="B58" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>2</v>
-      </c>
-      <c r="C58" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>20 GRS</v>
+      <c r="A58" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B58" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C58" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A59" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Plakban Kenko Bening</v>
-      </c>
-      <c r="B59" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>31</v>
-      </c>
-      <c r="C59" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>72 PCS</v>
+      <c r="A59" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B59" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C59" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A60" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Plakban Kenko Coklat</v>
-      </c>
-      <c r="B60" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>29</v>
-      </c>
-      <c r="C60" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>72 PCS</v>
+      <c r="A60" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B60" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C60" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A61" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Pocket note Kenko 404</v>
-      </c>
-      <c r="B61" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C61" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>20 LSN</v>
+      <c r="A61" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B61" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C61" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A62" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Punch JK 40 XL</v>
-      </c>
-      <c r="B62" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C62" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>5 LSN</v>
+      <c r="A62" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B62" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C62" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A63" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Punch JK 85 B</v>
-      </c>
-      <c r="B63" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>2</v>
-      </c>
-      <c r="C63" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>24 PCS</v>
+      <c r="A63" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B63" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C63" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A64" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Pushpin Kenko PN 30</v>
-      </c>
-      <c r="B64" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C64" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>48 LSN</v>
+      <c r="A64" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B64" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C64" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A65" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>PW JK 12W CP-12 PB panjang</v>
-      </c>
-      <c r="B65" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C65" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>12 LSN</v>
+      <c r="A65" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B65" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C65" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A66" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Spidol 12W Brush Pen DBP 12W  Kenko</v>
-      </c>
-      <c r="B66" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>3</v>
-      </c>
-      <c r="C66" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>6 BOX (24 SET)</v>
+      <c r="A66" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B66" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C66" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A67" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Spidol Color marker Kenko Hj</v>
-      </c>
-      <c r="B67" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>2</v>
-      </c>
-      <c r="C67" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>144 LSN</v>
+      <c r="A67" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B67" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C67" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A68" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Spidol Kenko H lighter Or(3)/ Hj(1)</v>
-      </c>
-      <c r="B68" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>4</v>
-      </c>
-      <c r="C68" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>72 LSN</v>
+      <c r="A68" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B68" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C68" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A69" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Spidol Kenko H lighter win liner K</v>
-      </c>
-      <c r="B69" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>2</v>
-      </c>
-      <c r="C69" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>72 LSN</v>
+      <c r="A69" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B69" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C69" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A70" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Spidol Kenko Marker M lepasan</v>
-      </c>
-      <c r="B70" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>7</v>
-      </c>
-      <c r="C70" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>144 LSN</v>
+      <c r="A70" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B70" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C70" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A71" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Spidol Kenko Marker PM 700 M</v>
-      </c>
-      <c r="B71" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>6</v>
-      </c>
-      <c r="C71" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>60 LSN</v>
+      <c r="A71" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B71" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C71" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A72" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Spidol Kenko Marker WM 700 B/ M Whiteboard</v>
-      </c>
-      <c r="B72" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>54</v>
-      </c>
-      <c r="C72" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>60 LSN</v>
+      <c r="A72" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B72" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C72" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A73" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Stabillo Kenko High Winner kuning</v>
-      </c>
-      <c r="B73" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>5</v>
-      </c>
-      <c r="C73" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>864 PCS</v>
+      <c r="A73" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B73" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C73" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A74" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Stampad JK no 0</v>
-      </c>
-      <c r="B74" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C74" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>216 PCS</v>
+      <c r="A74" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B74" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C74" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A75" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Stampad JK no 1</v>
-      </c>
-      <c r="B75" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C75" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>216 PCS</v>
+      <c r="A75" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B75" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C75" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A76" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Stapler JK HD 50 CL</v>
-      </c>
-      <c r="B76" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C76" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>10 LSN</v>
+      <c r="A76" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B76" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C76" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A77" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Stip JK 30 Ht</v>
-      </c>
-      <c r="B77" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C77" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>50 BOX (30 PCS)</v>
+      <c r="A77" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B77" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C77" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A78" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Stip JK 40 Warna</v>
-      </c>
-      <c r="B78" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C78" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>50 BOX (40 PCS)</v>
+      <c r="A78" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B78" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C78" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A79" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Tipe-ex JK CT-520</v>
-      </c>
-      <c r="B79" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C79" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>36 LSN</v>
+      <c r="A79" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B79" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C79" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A80" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Tipe-ex JK CT-533</v>
-      </c>
-      <c r="B80" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>2</v>
-      </c>
-      <c r="C80" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>40 LSN</v>
+      <c r="A80" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B80" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C80" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A81" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Tipe-ex Kenko CT-1505 FC</v>
-      </c>
-      <c r="B81" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>4</v>
-      </c>
-      <c r="C81" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>48 LSN</v>
+      <c r="A81" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B81" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C81" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A82" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Tipe-ex Kenko CT-309</v>
-      </c>
-      <c r="B82" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C82" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>48 LSN</v>
+      <c r="A82" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B82" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C82" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A83" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Tipe-ex Kenko CT-809</v>
-      </c>
-      <c r="B83" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C83" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>48 LSN</v>
+      <c r="A83" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B83" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C83" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A84" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Tipe-ex Kenko CT-819</v>
-      </c>
-      <c r="B84" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C84" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>36 LSN</v>
+      <c r="A84" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B84" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C84" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A85" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Tipe-ex Kenko CT-902</v>
-      </c>
-      <c r="B85" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>3</v>
-      </c>
-      <c r="C85" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>48 LSN</v>
+      <c r="A85" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B85" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C85" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A86" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Tipe-ex Kenko CT-902 CL</v>
-      </c>
-      <c r="B86" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>4</v>
-      </c>
-      <c r="C86" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>48 LSN</v>
+      <c r="A86" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B86" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C86" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A87" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Tipe-ex Kenko CT-903</v>
-      </c>
-      <c r="B87" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>2</v>
-      </c>
-      <c r="C87" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>48 LSN</v>
+      <c r="A87" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B87" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C87" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A88" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Tipe-ex Kenko CT-906</v>
-      </c>
-      <c r="B88" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>3</v>
-      </c>
-      <c r="C88" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>48 LSN</v>
+      <c r="A88" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B88" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C88" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A89" s="34" t="str">
-        <f ca="1">INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>Tipe-ex Kenko CT-919</v>
-      </c>
-      <c r="B89" s="35">
-        <f ca="1">INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>1</v>
-      </c>
-      <c r="C89" s="36" t="str">
-        <f ca="1">INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
-        <v>36 LSN</v>
+      <c r="A89" s="33" t="e">
+        <f>INDEX([1]!Table2[NAMA BARANG],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B89" s="34" t="e">
+        <f>INDEX([1]!Table2[TT],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C89" s="35" t="e">
+        <f>INDEX([1]!Table2[KET],MATCH(ROW()-1,[1]!Table2[//]))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1">
@@ -14091,19 +14093,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>1616</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="30" t="str">
+      <c r="A2" s="36" t="str">
         <f ca="1">"TANGGAL : "&amp;SUBSTITUTE(MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1),".xlsx","")</f>
-        <v>TANGGAL : 25 SEPTEMBER - 30 SEPTEMBER 2023</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+        <v>TANGGAL : KELUAR 09</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
